--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll4-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Dll4-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H2">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I2">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J2">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.987818</v>
+        <v>19.412944</v>
       </c>
       <c r="N2">
-        <v>8.963454</v>
+        <v>58.238832</v>
       </c>
       <c r="O2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P2">
-        <v>0.03670737884717296</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q2">
-        <v>83.84588065450068</v>
+        <v>863.8200728373546</v>
       </c>
       <c r="R2">
-        <v>754.6129258905059</v>
+        <v>7774.380655536191</v>
       </c>
       <c r="S2">
-        <v>0.03508032994892477</v>
+        <v>0.3070231794486981</v>
       </c>
       <c r="T2">
-        <v>0.03508032994892476</v>
+        <v>0.307023179448698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H3">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I3">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J3">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.22398</v>
       </c>
       <c r="O3">
-        <v>0.05825042696427194</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P3">
-        <v>0.05825042696427195</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q3">
-        <v>133.0538573090244</v>
+        <v>210.9753753240978</v>
       </c>
       <c r="R3">
-        <v>1197.48471578122</v>
+        <v>1898.77837791688</v>
       </c>
       <c r="S3">
-        <v>0.05566848578537992</v>
+        <v>0.07498590569286645</v>
       </c>
       <c r="T3">
-        <v>0.05566848578537992</v>
+        <v>0.07498590569286644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H4">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I4">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J4">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1099783333333333</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N4">
-        <v>0.329935</v>
+        <v>0.245974</v>
       </c>
       <c r="O4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P4">
-        <v>0.001351158720727747</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q4">
-        <v>3.086275740773889</v>
+        <v>3.648378088971556</v>
       </c>
       <c r="R4">
-        <v>27.776481666965</v>
+        <v>32.835402800744</v>
       </c>
       <c r="S4">
-        <v>0.001291268819106841</v>
+        <v>0.001296724486880404</v>
       </c>
       <c r="T4">
-        <v>0.001291268819106841</v>
+        <v>0.001296724486880404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H5">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I5">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J5">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>72.98704766666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N5">
-        <v>218.961143</v>
+        <v>112.478254</v>
       </c>
       <c r="O5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P5">
-        <v>0.8966955850848359</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q5">
-        <v>2048.204839780631</v>
+        <v>1668.319405219158</v>
       </c>
       <c r="R5">
-        <v>18433.84355802567</v>
+        <v>15014.87464697242</v>
       </c>
       <c r="S5">
-        <v>0.8569496917632083</v>
+        <v>0.5929622895239079</v>
       </c>
       <c r="T5">
-        <v>0.8569496917632081</v>
+        <v>0.5929622895239079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.06257966666666</v>
+        <v>44.49711866666667</v>
       </c>
       <c r="H6">
-        <v>84.18773899999999</v>
+        <v>133.491356</v>
       </c>
       <c r="I6">
-        <v>0.955675154441775</v>
+        <v>0.9783373366533485</v>
       </c>
       <c r="J6">
-        <v>0.9556751544417748</v>
+        <v>0.9783373366533487</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,60 +809,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.357675</v>
+        <v>0.130837</v>
       </c>
       <c r="N6">
-        <v>1.073025</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O6">
-        <v>0.004394280953245005</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P6">
-        <v>0.004394280953245006</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q6">
-        <v>10.037283182275</v>
+        <v>5.821869514990667</v>
       </c>
       <c r="R6">
-        <v>90.33554864047498</v>
+        <v>52.39682563491601</v>
       </c>
       <c r="S6">
-        <v>0.00419950512865297</v>
+        <v>0.002069237500995692</v>
       </c>
       <c r="T6">
-        <v>0.00419950512865297</v>
+        <v>0.002069237500995692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>28.06257966666666</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H7">
-        <v>84.18773899999999</v>
+        <v>0.519023</v>
       </c>
       <c r="I7">
-        <v>0.955675154441775</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J7">
-        <v>0.9556751544417748</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2117236666666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N7">
-        <v>0.635171</v>
+        <v>58.238832</v>
       </c>
       <c r="O7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P7">
-        <v>0.002601169429746356</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q7">
-        <v>5.941512263152111</v>
+        <v>3.358588144570667</v>
       </c>
       <c r="R7">
-        <v>53.473610368369</v>
+        <v>30.227293301136</v>
       </c>
       <c r="S7">
-        <v>0.002485872996502073</v>
+        <v>0.001193725919354671</v>
       </c>
       <c r="T7">
-        <v>0.002485872996502072</v>
+        <v>0.00119372591935467</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -921,10 +921,10 @@
         <v>0.519023</v>
       </c>
       <c r="I8">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J8">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.987818</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N8">
-        <v>8.963454</v>
+        <v>14.22398</v>
       </c>
       <c r="O8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P8">
-        <v>0.03670737884717296</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q8">
-        <v>0.5169154206046668</v>
+        <v>0.8202858635044444</v>
       </c>
       <c r="R8">
-        <v>4.652238785442</v>
+        <v>7.38257277154</v>
       </c>
       <c r="S8">
-        <v>0.0002162725630519757</v>
+        <v>0.0002915500366213122</v>
       </c>
       <c r="T8">
-        <v>0.0002162725630519757</v>
+        <v>0.0002915500366213122</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -983,40 +983,40 @@
         <v>0.519023</v>
       </c>
       <c r="I9">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J9">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.741326666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N9">
-        <v>14.22398</v>
+        <v>0.245974</v>
       </c>
       <c r="O9">
-        <v>0.05825042696427194</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P9">
-        <v>0.05825042696427195</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q9">
-        <v>0.8202858635044444</v>
+        <v>0.01418512926688889</v>
       </c>
       <c r="R9">
-        <v>7.38257277154</v>
+        <v>0.127666163402</v>
       </c>
       <c r="S9">
-        <v>0.0003431999105925062</v>
+        <v>5.041748421179631E-06</v>
       </c>
       <c r="T9">
-        <v>0.0003431999105925062</v>
+        <v>5.041748421179631E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,40 +1045,40 @@
         <v>0.519023</v>
       </c>
       <c r="I10">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J10">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1099783333333333</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N10">
-        <v>0.329935</v>
+        <v>112.478254</v>
       </c>
       <c r="O10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P10">
-        <v>0.001351158720727747</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q10">
-        <v>0.01902709483388889</v>
+        <v>6.486533425093556</v>
       </c>
       <c r="R10">
-        <v>0.171243853505</v>
+        <v>58.378800825842</v>
       </c>
       <c r="S10">
-        <v>7.960757994691958E-06</v>
+        <v>0.002305475617429246</v>
       </c>
       <c r="T10">
-        <v>7.960757994691956E-06</v>
+        <v>0.002305475617429246</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,45 +1107,45 @@
         <v>0.519023</v>
       </c>
       <c r="I11">
-        <v>0.005891800772602212</v>
+        <v>0.003803838650660129</v>
       </c>
       <c r="J11">
-        <v>0.005891800772602211</v>
+        <v>0.00380383865066013</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>72.98704766666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N11">
-        <v>218.961143</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P11">
-        <v>0.8966955850848359</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q11">
-        <v>12.62731881369878</v>
+        <v>0.02263580408366667</v>
       </c>
       <c r="R11">
-        <v>113.645869323289</v>
+        <v>0.203722236753</v>
       </c>
       <c r="S11">
-        <v>0.005283151740991829</v>
+        <v>8.045328833720792E-06</v>
       </c>
       <c r="T11">
-        <v>0.005283151740991828</v>
+        <v>8.045328833720793E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1154,87 +1154,87 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1730076666666667</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H12">
-        <v>0.519023</v>
+        <v>0.138548</v>
       </c>
       <c r="I12">
-        <v>0.005891800772602212</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J12">
-        <v>0.005891800772602211</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.357675</v>
+        <v>19.412944</v>
       </c>
       <c r="N12">
-        <v>1.073025</v>
+        <v>58.238832</v>
       </c>
       <c r="O12">
-        <v>0.004394280953245005</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P12">
-        <v>0.004394280953245006</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q12">
-        <v>0.061880517175</v>
+        <v>0.8965415217706667</v>
       </c>
       <c r="R12">
-        <v>0.556924654575</v>
+        <v>8.068873695936</v>
       </c>
       <c r="S12">
-        <v>2.589022791536011E-05</v>
+        <v>0.0003186531977865161</v>
       </c>
       <c r="T12">
-        <v>2.589022791536011E-05</v>
+        <v>0.000318653197786516</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1730076666666667</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H13">
-        <v>0.519023</v>
+        <v>0.138548</v>
       </c>
       <c r="I13">
-        <v>0.005891800772602212</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J13">
-        <v>0.005891800772602211</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2117236666666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N13">
-        <v>0.635171</v>
+        <v>14.22398</v>
       </c>
       <c r="O13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P13">
-        <v>0.002601169429746356</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q13">
-        <v>0.03662981754811111</v>
+        <v>0.2189671090044445</v>
       </c>
       <c r="R13">
-        <v>0.329668357933</v>
+        <v>1.97070398104</v>
       </c>
       <c r="S13">
-        <v>1.532557205584884E-05</v>
+        <v>7.782636698914994E-05</v>
       </c>
       <c r="T13">
-        <v>1.532557205584883E-05</v>
+        <v>7.782636698914992E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H14">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I14">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J14">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>2.987818</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N14">
-        <v>8.963454</v>
+        <v>0.245974</v>
       </c>
       <c r="O14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P14">
-        <v>0.03670737884717296</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q14">
-        <v>1.205818608743333</v>
+        <v>0.003786578416888889</v>
       </c>
       <c r="R14">
-        <v>10.85236747869</v>
+        <v>0.034079205752</v>
       </c>
       <c r="S14">
-        <v>0.0005045031947076216</v>
+        <v>1.345844327240981E-06</v>
       </c>
       <c r="T14">
-        <v>0.0005045031947076214</v>
+        <v>1.345844327240981E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H15">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I15">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J15">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.741326666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N15">
-        <v>14.22398</v>
+        <v>112.478254</v>
       </c>
       <c r="O15">
-        <v>0.05825042696427194</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P15">
-        <v>0.05825042696427195</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q15">
-        <v>1.913496713922222</v>
+        <v>1.731515237243556</v>
       </c>
       <c r="R15">
-        <v>17.2214704253</v>
+        <v>15.583637135192</v>
       </c>
       <c r="S15">
-        <v>0.0008005890755346447</v>
+        <v>0.0006154236630045051</v>
       </c>
       <c r="T15">
-        <v>0.0008005890755346446</v>
+        <v>0.000615423663004505</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4035783333333333</v>
+        <v>0.04618266666666667</v>
       </c>
       <c r="H16">
-        <v>1.210735</v>
+        <v>0.138548</v>
       </c>
       <c r="I16">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="J16">
-        <v>0.01374391772313855</v>
+        <v>0.001015396692192176</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1099783333333333</v>
+        <v>0.130837</v>
       </c>
       <c r="N16">
-        <v>0.329935</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P16">
-        <v>0.001351158720727747</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q16">
-        <v>0.04438487246944444</v>
+        <v>0.006042401558666668</v>
       </c>
       <c r="R16">
-        <v>0.3994638522249999</v>
+        <v>0.05438161402800001</v>
       </c>
       <c r="S16">
-        <v>1.857021428858329E-05</v>
+        <v>2.147620084763774E-06</v>
       </c>
       <c r="T16">
-        <v>1.857021428858329E-05</v>
+        <v>2.147620084763774E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -1464,7 +1464,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4035783333333333</v>
+        <v>0.721682</v>
       </c>
       <c r="H17">
-        <v>1.210735</v>
+        <v>2.165046</v>
       </c>
       <c r="I17">
-        <v>0.01374391772313855</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J17">
-        <v>0.01374391772313855</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>72.98704766666667</v>
+        <v>19.412944</v>
       </c>
       <c r="N17">
-        <v>218.961143</v>
+        <v>58.238832</v>
       </c>
       <c r="O17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P17">
-        <v>0.8966955850848359</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q17">
-        <v>29.45599105223389</v>
+        <v>14.009972251808</v>
       </c>
       <c r="R17">
-        <v>265.103919470105</v>
+        <v>126.089750266272</v>
       </c>
       <c r="S17">
-        <v>0.01232411034410757</v>
+        <v>0.00497949325327616</v>
       </c>
       <c r="T17">
-        <v>0.01232411034410756</v>
+        <v>0.004979493253276159</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4035783333333333</v>
+        <v>0.721682</v>
       </c>
       <c r="H18">
-        <v>1.210735</v>
+        <v>2.165046</v>
       </c>
       <c r="I18">
-        <v>0.01374391772313855</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J18">
-        <v>0.01374391772313855</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.357675</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N18">
-        <v>1.073025</v>
+        <v>14.22398</v>
       </c>
       <c r="O18">
-        <v>0.004394280953245005</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P18">
-        <v>0.004394280953245006</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q18">
-        <v>0.144349880375</v>
+        <v>3.421730111453333</v>
       </c>
       <c r="R18">
-        <v>1.299148923375</v>
+        <v>30.79557100308001</v>
       </c>
       <c r="S18">
-        <v>6.039463587375418E-05</v>
+        <v>0.001216168147821629</v>
       </c>
       <c r="T18">
-        <v>6.039463587375418E-05</v>
+        <v>0.001216168147821629</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,7 +1588,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4035783333333333</v>
+        <v>0.721682</v>
       </c>
       <c r="H19">
-        <v>1.210735</v>
+        <v>2.165046</v>
       </c>
       <c r="I19">
-        <v>0.01374391772313855</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J19">
-        <v>0.01374391772313855</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2117236666666667</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N19">
-        <v>0.635171</v>
+        <v>0.245974</v>
       </c>
       <c r="O19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P19">
-        <v>0.002601169429746356</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q19">
-        <v>0.08544708452055555</v>
+        <v>0.05917166942266667</v>
       </c>
       <c r="R19">
-        <v>0.769023760685</v>
+        <v>0.532545024804</v>
       </c>
       <c r="S19">
-        <v>3.575025862637714E-05</v>
+        <v>2.103108581369472E-05</v>
       </c>
       <c r="T19">
-        <v>3.575025862637712E-05</v>
+        <v>2.103108581369472E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,25 +1650,25 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4046196666666666</v>
+        <v>0.721682</v>
       </c>
       <c r="H20">
-        <v>1.213859</v>
+        <v>2.165046</v>
       </c>
       <c r="I20">
-        <v>0.01377938047837986</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="J20">
-        <v>0.01377938047837985</v>
+        <v>0.0158672846005998</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.987818</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N20">
-        <v>8.963454</v>
+        <v>112.478254</v>
       </c>
       <c r="O20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P20">
-        <v>0.03670737884717296</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q20">
-        <v>1.208929923220667</v>
+        <v>27.05784376774267</v>
       </c>
       <c r="R20">
-        <v>10.880369308986</v>
+        <v>243.520593909684</v>
       </c>
       <c r="S20">
-        <v>0.0005058049394992287</v>
+        <v>0.009617031930401389</v>
       </c>
       <c r="T20">
-        <v>0.0005058049394992286</v>
+        <v>0.009617031930401389</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.721682</v>
+      </c>
+      <c r="H21">
+        <v>2.165046</v>
+      </c>
+      <c r="I21">
+        <v>0.0158672846005998</v>
+      </c>
+      <c r="J21">
+        <v>0.0158672846005998</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="L21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.4046196666666666</v>
-      </c>
-      <c r="H21">
-        <v>1.213859</v>
-      </c>
-      <c r="I21">
-        <v>0.01377938047837986</v>
-      </c>
-      <c r="J21">
-        <v>0.01377938047837985</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
-        <v>4.741326666666667</v>
+        <v>0.130837</v>
       </c>
       <c r="N21">
-        <v>14.22398</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O21">
-        <v>0.05825042696427194</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P21">
-        <v>0.05825042696427195</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q21">
-        <v>1.918434015424444</v>
+        <v>0.09442270783400002</v>
       </c>
       <c r="R21">
-        <v>17.26590613882</v>
+        <v>0.8498043705060002</v>
       </c>
       <c r="S21">
-        <v>0.0008026547961687803</v>
+        <v>3.356018328692922E-05</v>
       </c>
       <c r="T21">
-        <v>0.0008026547961687802</v>
+        <v>3.356018328692923E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
@@ -1774,7 +1774,7 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1783,51 +1783,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.4046196666666666</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H22">
-        <v>1.213859</v>
+        <v>0.133192</v>
       </c>
       <c r="I22">
-        <v>0.01377938047837986</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J22">
-        <v>0.01377938047837985</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1099783333333333</v>
+        <v>19.412944</v>
       </c>
       <c r="N22">
-        <v>0.329935</v>
+        <v>58.238832</v>
       </c>
       <c r="O22">
-        <v>0.001351158720727747</v>
+        <v>0.3138213864953257</v>
       </c>
       <c r="P22">
-        <v>0.001351158720727747</v>
+        <v>0.3138213864953256</v>
       </c>
       <c r="Q22">
-        <v>0.04449939657388888</v>
+        <v>0.8618829457493331</v>
       </c>
       <c r="R22">
-        <v>0.4004945691649999</v>
+        <v>7.756946511743998</v>
       </c>
       <c r="S22">
-        <v>1.861813009958862E-05</v>
+        <v>0.0003063346762102783</v>
       </c>
       <c r="T22">
-        <v>1.861813009958862E-05</v>
+        <v>0.0003063346762102782</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1836,7 +1836,7 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.4046196666666666</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H23">
-        <v>1.213859</v>
+        <v>0.133192</v>
       </c>
       <c r="I23">
-        <v>0.01377938047837986</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J23">
-        <v>0.01377938047837985</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>72.98704766666667</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N23">
-        <v>218.961143</v>
+        <v>14.22398</v>
       </c>
       <c r="O23">
-        <v>0.8966955850848359</v>
+        <v>0.07664626799317993</v>
       </c>
       <c r="P23">
-        <v>0.8966955850848359</v>
+        <v>0.07664626799317992</v>
       </c>
       <c r="Q23">
-        <v>29.53199489787077</v>
+        <v>0.2105022604622222</v>
       </c>
       <c r="R23">
-        <v>265.7879540808369</v>
+        <v>1.89452034416</v>
       </c>
       <c r="S23">
-        <v>0.01235590964016739</v>
+        <v>7.481774888139023E-05</v>
       </c>
       <c r="T23">
-        <v>0.01235590964016739</v>
+        <v>7.481774888139023E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1898,7 +1898,7 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.4046196666666666</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H24">
-        <v>1.213859</v>
+        <v>0.133192</v>
       </c>
       <c r="I24">
-        <v>0.01377938047837986</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J24">
-        <v>0.01377938047837985</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1925,33 +1925,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.357675</v>
+        <v>0.08199133333333333</v>
       </c>
       <c r="N24">
-        <v>1.073025</v>
+        <v>0.245974</v>
       </c>
       <c r="O24">
-        <v>0.004394280953245005</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="P24">
-        <v>0.004394280953245006</v>
+        <v>0.001325436982008864</v>
       </c>
       <c r="Q24">
-        <v>0.144722339275</v>
+        <v>0.003640196556444444</v>
       </c>
       <c r="R24">
-        <v>1.302501053475</v>
+        <v>0.03276176900799999</v>
       </c>
       <c r="S24">
-        <v>6.055046918366065E-05</v>
+        <v>1.293816566344376E-06</v>
       </c>
       <c r="T24">
-        <v>6.055046918366064E-05</v>
+        <v>1.293816566344376E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1960,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.4046196666666666</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H25">
-        <v>1.213859</v>
+        <v>0.133192</v>
       </c>
       <c r="I25">
-        <v>0.01377938047837986</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J25">
-        <v>0.01377938047837985</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2117236666666667</v>
+        <v>37.49275133333333</v>
       </c>
       <c r="N25">
-        <v>0.635171</v>
+        <v>112.478254</v>
       </c>
       <c r="O25">
-        <v>0.002601169429746356</v>
+        <v>0.6060918532990739</v>
       </c>
       <c r="P25">
-        <v>0.002601169429746356</v>
+        <v>0.6060918532990738</v>
       </c>
       <c r="Q25">
-        <v>0.0856675594321111</v>
+        <v>1.664578178529777</v>
       </c>
       <c r="R25">
-        <v>0.7710080348889999</v>
+        <v>14.981203606768</v>
       </c>
       <c r="S25">
-        <v>3.58425032612054E-05</v>
+        <v>0.0005916325643307447</v>
       </c>
       <c r="T25">
-        <v>3.584250326120539E-05</v>
+        <v>0.0005916325643307446</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,365 +2022,55 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3203553333333333</v>
+        <v>0.04439733333333332</v>
       </c>
       <c r="H26">
-        <v>0.961066</v>
+        <v>0.133192</v>
       </c>
       <c r="I26">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993261</v>
       </c>
       <c r="J26">
-        <v>0.01090974658410459</v>
+        <v>0.0009761434031993262</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.987818</v>
+        <v>0.130837</v>
       </c>
       <c r="N26">
-        <v>8.963454</v>
+        <v>0.3925110000000001</v>
       </c>
       <c r="O26">
-        <v>0.03670737884717296</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="P26">
-        <v>0.03670737884717296</v>
+        <v>0.002115055230411674</v>
       </c>
       <c r="Q26">
-        <v>0.9571634313293335</v>
+        <v>0.005808813901333332</v>
       </c>
       <c r="R26">
-        <v>8.614470881963999</v>
+        <v>0.052279325112</v>
       </c>
       <c r="S26">
-        <v>0.0004004682009893784</v>
+        <v>2.064597210568586E-06</v>
       </c>
       <c r="T26">
-        <v>0.0004004682009893783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.3203553333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.961066</v>
-      </c>
-      <c r="I27">
-        <v>0.01090974658410459</v>
-      </c>
-      <c r="J27">
-        <v>0.01090974658410459</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>4.741326666666667</v>
-      </c>
-      <c r="N27">
-        <v>14.22398</v>
-      </c>
-      <c r="O27">
-        <v>0.05825042696427194</v>
-      </c>
-      <c r="P27">
-        <v>0.05825042696427195</v>
-      </c>
-      <c r="Q27">
-        <v>1.518909284742222</v>
-      </c>
-      <c r="R27">
-        <v>13.67018356268</v>
-      </c>
-      <c r="S27">
-        <v>0.0006354973965960999</v>
-      </c>
-      <c r="T27">
-        <v>0.0006354973965960998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.3203553333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.961066</v>
-      </c>
-      <c r="I28">
-        <v>0.01090974658410459</v>
-      </c>
-      <c r="J28">
-        <v>0.01090974658410459</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.1099783333333333</v>
-      </c>
-      <c r="N28">
-        <v>0.329935</v>
-      </c>
-      <c r="O28">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="P28">
-        <v>0.001351158720727747</v>
-      </c>
-      <c r="Q28">
-        <v>0.03523214563444444</v>
-      </c>
-      <c r="R28">
-        <v>0.31708931071</v>
-      </c>
-      <c r="S28">
-        <v>1.474079923804267E-05</v>
-      </c>
-      <c r="T28">
-        <v>1.474079923804267E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.3203553333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.961066</v>
-      </c>
-      <c r="I29">
-        <v>0.01090974658410459</v>
-      </c>
-      <c r="J29">
-        <v>0.01090974658410459</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>72.98704766666667</v>
-      </c>
-      <c r="N29">
-        <v>218.961143</v>
-      </c>
-      <c r="O29">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="P29">
-        <v>0.8966955850848359</v>
-      </c>
-      <c r="Q29">
-        <v>23.38178998427089</v>
-      </c>
-      <c r="R29">
-        <v>210.436109858438</v>
-      </c>
-      <c r="S29">
-        <v>0.009782721596360958</v>
-      </c>
-      <c r="T29">
-        <v>0.009782721596360955</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.3203553333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.961066</v>
-      </c>
-      <c r="I30">
-        <v>0.01090974658410459</v>
-      </c>
-      <c r="J30">
-        <v>0.01090974658410459</v>
-      </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M30">
-        <v>0.357675</v>
-      </c>
-      <c r="N30">
-        <v>1.073025</v>
-      </c>
-      <c r="O30">
-        <v>0.004394280953245005</v>
-      </c>
-      <c r="P30">
-        <v>0.004394280953245006</v>
-      </c>
-      <c r="Q30">
-        <v>0.11458309385</v>
-      </c>
-      <c r="R30">
-        <v>1.03124784465</v>
-      </c>
-      <c r="S30">
-        <v>4.794049161926056E-05</v>
-      </c>
-      <c r="T30">
-        <v>4.794049161926056E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.3203553333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.961066</v>
-      </c>
-      <c r="I31">
-        <v>0.01090974658410459</v>
-      </c>
-      <c r="J31">
-        <v>0.01090974658410459</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.2117236666666667</v>
-      </c>
-      <c r="N31">
-        <v>0.635171</v>
-      </c>
-      <c r="O31">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="P31">
-        <v>0.002601169429746356</v>
-      </c>
-      <c r="Q31">
-        <v>0.06782680580955555</v>
-      </c>
-      <c r="R31">
-        <v>0.610441252286</v>
-      </c>
-      <c r="S31">
-        <v>2.83780993008526E-05</v>
-      </c>
-      <c r="T31">
-        <v>2.837809930085259E-05</v>
+        <v>2.064597210568587E-06</v>
       </c>
     </row>
   </sheetData>
